--- a/biology/Microbiologie/Kiritimatiellota/Kiritimatiellota.xlsx
+++ b/biology/Microbiologie/Kiritimatiellota/Kiritimatiellota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Kiritimatiellota sont un embranchement de bactéries à Gram négatif du règne des Bacteria. Son nom provient de Kiritimatiella qui est le genre type de cet embranchement.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet embranchement est proposé en 2016 par S. Spring et al. pour recevoir l'espèce Kiritimatiella glycovorans isolée d'un tapis de cyanobactéries localisées dans la zone anoxique d'un lac hypersalin de l'atoll de Kiritimati[1]. Il est validé cinq ans plus tard par une publication de A. Oren et G.M. Garrity dans l'IJSEM[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet embranchement est proposé en 2016 par S. Spring et al. pour recevoir l'espèce Kiritimatiella glycovorans isolée d'un tapis de cyanobactéries localisées dans la zone anoxique d'un lac hypersalin de l'atoll de Kiritimati. Il est validé cinq ans plus tard par une publication de A. Oren et G.M. Garrity dans l'IJSEM.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste de classes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (19 novembre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (19 novembre 2022) :
 Kiritimatiellae Spring et al. 2017 (nom. illeg.)
 Tichowtungiia Mu et al. 2020</t>
         </is>
